--- a/data-science/datas/marks.xlsx
+++ b/data-science/datas/marks.xlsx
@@ -464,14 +464,20 @@
           <t>Jim</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>85</v>
-      </c>
-      <c r="D2" t="n">
-        <v>82</v>
-      </c>
-      <c r="E2" t="n">
-        <v>84</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -483,14 +489,20 @@
           <t>Lily</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>63</v>
-      </c>
-      <c r="E3" t="n">
-        <v>90</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -502,14 +514,20 @@
           <t>Jack</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88</v>
-      </c>
-      <c r="E4" t="n">
-        <v>78</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data-science/datas/marks.xlsx
+++ b/data-science/datas/marks.xlsx
@@ -464,20 +464,14 @@
           <t>Jim</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -489,20 +483,14 @@
           <t>Lily</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>63</v>
+      </c>
+      <c r="E3" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -514,20 +502,14 @@
           <t>Jack</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>88</v>
+      </c>
+      <c r="E4" t="n">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data-science/datas/marks.xlsx
+++ b/data-science/datas/marks.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data-science/datas/marks.xlsx
+++ b/data-science/datas/marks.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
